--- a/Proyectos/2015/12/P1386 - RNCNOM, Abraham Mora Valenzuela_MO/Planeacion/Plan_de_proyecto.xlsx
+++ b/Proyectos/2015/12/P1386 - RNCNOM, Abraham Mora Valenzuela_MO/Planeacion/Plan_de_proyecto.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Presentación" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,7 @@
     <sheet name="Plan Riesgos" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'Plan Riesgos'!$A$1:$F$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'Plan Riesgos'!$A$1:$F$21</definedName>
     <definedName function="false" hidden="false" name="Complej." vbProcedure="false">#ref!</definedName>
     <definedName function="false" hidden="false" name="Excel_BuiltIn_Print_Area_2" vbProcedure="false">#ref!</definedName>
     <definedName function="false" hidden="false" name="Excel_BuiltIn_Print_Area_4" vbProcedure="false">#ref!</definedName>
@@ -30,7 +30,8 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_Toc120446019" vbProcedure="false">'Recursos Humanos'!$A$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="Complej." vbProcedure="false">#ref!</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="Complej." vbProcedure="false">#ref!</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'Plan Riesgos'!$A$1:$F$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'Plan Riesgos'!$A$1:$F$21</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area_0" vbProcedure="false">'Plan Riesgos'!$A$1:$F$21</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
@@ -158,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="157">
   <si>
     <t>Plan del Proyecto</t>
   </si>
@@ -265,7 +266,7 @@
     <t>Carta de aceptación</t>
   </si>
   <si>
-    <t>Sin respuesta</t>
+    <t>Sin respuesta(especificada en encuesta de safistaccion)</t>
   </si>
   <si>
     <t>Ciclo de Vida</t>
@@ -292,7 +293,7 @@
     <t>Matriz de resposabilidades</t>
   </si>
   <si>
-    <t>Roles Equipo &lt;Interno&gt;</t>
+    <t>Roles Equipo &lt;SOS Software&gt;</t>
   </si>
   <si>
     <t>Rol</t>
@@ -376,7 +377,7 @@
     <t>Dirigir todas las areas de la empresa</t>
   </si>
   <si>
-    <t>Roles Equipo &lt;Cliente&gt;</t>
+    <t>Roles Equipo &lt;Abraham Mora Valenzuela&gt;</t>
   </si>
   <si>
     <t>Cliente</t>
@@ -430,21 +431,15 @@
     <t>Frecuencia</t>
   </si>
   <si>
-    <t>notificar actividad de implementación</t>
-  </si>
-  <si>
-    <t>Dejar los sistemas configurados y funcionanco correctamente</t>
+    <t>notificar la finalización de la actividad agendada</t>
+  </si>
+  <si>
+    <t>Notificar que la tarea se finalizó con éxito</t>
   </si>
   <si>
     <t>1 vez por proyecto</t>
   </si>
   <si>
-    <t>notificar la finalización de la actividad agendada</t>
-  </si>
-  <si>
-    <t>Notificar que la tarea se finalizó con éxito</t>
-  </si>
-  <si>
     <t>Reunion de compromiso</t>
   </si>
   <si>
@@ -502,12 +497,12 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>15/12/2015</t>
+  </si>
+  <si>
     <t>Hardware</t>
   </si>
   <si>
-    <t>AmmyAdmin</t>
-  </si>
-  <si>
     <t>Computadora</t>
   </si>
   <si>
@@ -562,82 +557,49 @@
     <t>Frecuencia de monitoreo</t>
   </si>
   <si>
-    <t>Falla de conexión remota con Ammyy Admin En caso de fallar la conexión remota con Ammy Admin por no instalación o problemas de equipo</t>
-  </si>
-  <si>
-    <t>TeamViwer, Show myPC</t>
-  </si>
-  <si>
-    <t>Solicitar la instalación de TeamViwer o Show MyPC</t>
-  </si>
-  <si>
-    <t>Jose Francisco Llamas Diaz</t>
+    <t>Falla electrica por problemas variables que afecta el uso de dispositivos</t>
+  </si>
+  <si>
+    <t>Home work</t>
+  </si>
+  <si>
+    <t>Comunicación con el cliente para reagendar cita</t>
   </si>
   <si>
     <t>Cerrado</t>
   </si>
   <si>
+    <t>El servicio de internet puede perder señal dañando la conexión y proceso de trabajo</t>
+  </si>
+  <si>
+    <t>Tener contrato con varias compañias de internet</t>
+  </si>
+  <si>
+    <t>Reportar el servicio fallido y cambiar la conexón de todas las maquinas</t>
+  </si>
+  <si>
+    <t>Mitigado</t>
+  </si>
+  <si>
+    <t>Probabilidad</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>No obtener carta de aceptación por un cliente que no contesta mensajes puede afectar el proceso de cierre</t>
+  </si>
+  <si>
+    <t>Enviar factura hasta obtener carta de aceptación</t>
+  </si>
+  <si>
+    <t>Enviar mensajes solicitando  al cliente la respuesta</t>
+  </si>
+  <si>
+    <t>Abierto</t>
+  </si>
+  <si>
     <t>Semanal</t>
-  </si>
-  <si>
-    <t>En caso de presentar problemas de instalación y configuración por problemas de compatibilidad</t>
-  </si>
-  <si>
-    <t>Validar los requerimientos minimos del equipo</t>
-  </si>
-  <si>
-    <t>Buscar y ejecutar la solución</t>
-  </si>
-  <si>
-    <t>Ocurrido</t>
-  </si>
-  <si>
-    <t>Falla de descarga de programa ocasionada por una conexión a internet pobre o limitada</t>
-  </si>
-  <si>
-    <t>Validar que la descarga se halla realizado</t>
-  </si>
-  <si>
-    <t>Reagenda la cita</t>
-  </si>
-  <si>
-    <t>Falla electrica por problemas variables que afecta el uso de dispositivos</t>
-  </si>
-  <si>
-    <t>Home work</t>
-  </si>
-  <si>
-    <t>Comunicación con el cliente para reagendar cita</t>
-  </si>
-  <si>
-    <t>El servicio de internet puede perder señal dañando la conexión y proceso de trabajo</t>
-  </si>
-  <si>
-    <t>Tener contrato con varias compañias de internet</t>
-  </si>
-  <si>
-    <t>Reportar el servicio fallido y cambiar la conexón de todas las maquinas</t>
-  </si>
-  <si>
-    <t>Mitigado</t>
-  </si>
-  <si>
-    <t>Probabilidad</t>
-  </si>
-  <si>
-    <t>MA</t>
-  </si>
-  <si>
-    <t>No obtener carta de aceptación por un cliente que no contesta mensajes</t>
-  </si>
-  <si>
-    <t>Enviar factura hasta obtener carta de aceptación</t>
-  </si>
-  <si>
-    <t>Enviar mensajes solicitando  al cliente la respuesta</t>
-  </si>
-  <si>
-    <t>Abierto</t>
   </si>
   <si>
     <t>A</t>
@@ -674,15 +636,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="DD/MM/YYYY"/>
     <numFmt numFmtId="167" formatCode="DD\-MMM\-YY"/>
-    <numFmt numFmtId="168" formatCode="MMM\-YY"/>
-    <numFmt numFmtId="169" formatCode="0%"/>
+    <numFmt numFmtId="168" formatCode="@"/>
+    <numFmt numFmtId="169" formatCode="MMM\-YY"/>
+    <numFmt numFmtId="170" formatCode="0%"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -793,6 +756,14 @@
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF003366"/>
+      <name val="Cambria"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -937,7 +908,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -961,6 +932,13 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
       <right style="hair"/>
       <top style="hair"/>
       <bottom style="hair"/>
@@ -1179,7 +1157,7 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="169" fontId="20" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="21" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1423,7 +1401,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="4" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1447,59 +1429,59 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="10" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="10" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1515,15 +1497,11 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="20" fillId="11" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="21" fillId="11" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="11" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1531,18 +1509,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1551,7 +1525,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1563,15 +1541,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1579,7 +1557,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1587,7 +1565,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1595,11 +1573,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1607,11 +1581,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="20" fillId="11" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="21" fillId="11" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1619,7 +1597,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="23" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="24" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1627,31 +1617,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="23" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="25" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1663,6 +1637,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="28" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1671,7 +1649,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="20" fillId="15" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="21" fillId="15" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1683,7 +1661,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1691,7 +1669,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1699,19 +1677,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1719,15 +1697,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1735,7 +1713,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1747,31 +1725,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
@@ -1853,324 +1831,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>232200</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>95760</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="0" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="360" y="0"/>
-          <a:ext cx="9524880" cy="9363240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>232200</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>95760</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="360" y="0"/>
-          <a:ext cx="9524880" cy="9363240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>232200</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>95760</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="360" y="0"/>
-          <a:ext cx="9524880" cy="9363240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>173160</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>9720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="360" y="0"/>
-          <a:ext cx="9524880" cy="9524880"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>173160</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>9720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="360" y="0"/>
-          <a:ext cx="9524880" cy="9524880"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>173160</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>9720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="360" y="0"/>
-          <a:ext cx="9524880" cy="9524880"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>173160</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>9720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="360" y="0"/>
-          <a:ext cx="9524880" cy="9524880"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -2314,8 +1974,8 @@
   </sheetPr>
   <dimension ref="A1:AMI30"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5"/>
@@ -2323,7 +1983,8 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="28.5714285714286"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="57.4234693877551"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.8571428571429"/>
-    <col collapsed="false" hidden="false" max="255" min="4" style="1" width="11.4183673469388"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="20.2857142857143"/>
+    <col collapsed="false" hidden="false" max="255" min="5" style="1" width="11.4183673469388"/>
     <col collapsed="false" hidden="false" max="256" min="256" style="1" width="2.70918367346939"/>
     <col collapsed="false" hidden="false" max="257" min="257" style="1" width="28.5714285714286"/>
     <col collapsed="false" hidden="false" max="258" min="258" style="1" width="57.4234693877551"/>
@@ -4535,7 +4196,7 @@
         <v>42362</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="18" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A18" s="15" t="s">
         <v>33</v>
       </c>
@@ -4661,8 +4322,8 @@
   </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4873,6 +4534,27 @@
       <c r="C17" s="36"/>
       <c r="D17" s="36"/>
       <c r="E17" s="37"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0"/>
+      <c r="B18" s="0"/>
+      <c r="C18" s="0"/>
+      <c r="D18" s="0"/>
+      <c r="E18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0"/>
+      <c r="B19" s="0"/>
+      <c r="C19" s="0"/>
+      <c r="D19" s="0"/>
+      <c r="E19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0"/>
+      <c r="B20" s="0"/>
+      <c r="C20" s="0"/>
+      <c r="D20" s="0"/>
+      <c r="E20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="38" t="s">
@@ -5043,15 +4725,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMI11"/>
+  <dimension ref="A1:AMI10"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="47" width="22.8571428571429"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="47" width="19.5714285714286"/>
@@ -9219,9 +8901,7 @@
       <c r="A5" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="54" t="s">
-        <v>55</v>
-      </c>
+      <c r="B5" s="54"/>
       <c r="C5" s="51" t="s">
         <v>55</v>
       </c>
@@ -9232,60 +8912,52 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" s="55" customFormat="true" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" s="55" customFormat="true" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="54"/>
+      <c r="B6" s="54" t="s">
+        <v>65</v>
+      </c>
       <c r="C6" s="51" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="D6" s="51" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E6" s="54" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" s="55" customFormat="true" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" s="55" customFormat="true" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="53" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B7" s="54" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C7" s="51" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D7" s="51" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E7" s="54" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" s="55" customFormat="true" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="54" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" s="54" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" s="55" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="8" s="55" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="53"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="54"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="53"/>
       <c r="B9" s="54"/>
       <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
+      <c r="D9" s="54"/>
       <c r="E9" s="54"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9295,19 +8967,12 @@
       <c r="D10" s="54"/>
       <c r="E10" s="54"/>
     </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="53"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:E2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="IT5:IT11 SP5:SP11 ACL5:ACL11 AMH5:AMH11" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="IT5:IT10 SP5:SP10 ACL5:ACL10 AMH5:AMH10" type="list">
       <formula1>"Orientación,Reporte,Reunión Periódica"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -9319,8 +8984,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -9329,13 +8993,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="56" width="32.4234693877551"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="56" width="12.7091836734694"/>
@@ -9362,7 +9026,7 @@
     </row>
     <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -9374,122 +9038,113 @@
     </row>
     <row r="3" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="D3" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="E3" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="F3" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="G3" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="J3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="B4" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="J3" s="0"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="57" t="s">
+      <c r="C4" s="35" t="s">
         <v>111</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>113</v>
       </c>
       <c r="D4" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58" t="s">
+      <c r="E4" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" s="35"/>
+      <c r="J4" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="G4" s="35"/>
-      <c r="J4" s="59" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="57" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="57" t="s">
+      <c r="B5" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="C5" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="35" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="D5" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="G5" s="35"/>
-      <c r="J5" s="59" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="57" t="s">
+      <c r="F5" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="G5" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="B6" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="D6" s="35" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="G6" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="J6" s="59" t="s">
-        <v>117</v>
-      </c>
+      <c r="J5" s="60" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="57"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="35"/>
+      <c r="J6" s="60"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="57"/>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
       <c r="G7" s="35"/>
-      <c r="J7" s="59"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="57"/>
+      <c r="A8" s="61"/>
       <c r="B8" s="35"/>
       <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
       <c r="G8" s="35"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="60"/>
+      <c r="A9" s="57"/>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
       <c r="G9" s="35"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9497,8 +9152,8 @@
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
       <c r="D10" s="35"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
       <c r="G10" s="35"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9506,17 +9161,17 @@
       <c r="B11" s="35"/>
       <c r="C11" s="35"/>
       <c r="D11" s="35"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
       <c r="G11" s="35"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="57"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="35"/>
       <c r="C12" s="35"/>
       <c r="D12" s="35"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
       <c r="G12" s="35"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9537,22 +9192,13 @@
       <c r="F14" s="35"/>
       <c r="G14" s="35"/>
     </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:G2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B4:B8 B10:B15" type="list">
-      <formula1>$J$4:$J$6</formula1>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B4:B7 B9:B14" type="list">
+      <formula1>$J$4:$J$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -9563,8 +9209,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -9573,10 +9218,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:JA43"/>
+  <dimension ref="A1:JA65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K11" activeCellId="0" sqref="K11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -9596,515 +9241,507 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="62"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
+      <c r="A1" s="63"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
     </row>
     <row r="2" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="64" t="s">
+      <c r="A2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="65" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="67"/>
+      <c r="IR2" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="IS2" s="68"/>
+      <c r="IT2" s="68"/>
+      <c r="IU2" s="68"/>
+      <c r="IV2" s="68"/>
+      <c r="IW2" s="68"/>
+      <c r="IX2" s="68"/>
+      <c r="IY2" s="68"/>
+      <c r="IZ2" s="68"/>
+      <c r="JA2" s="68"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="69"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="73"/>
+      <c r="AE3" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="66"/>
-      <c r="IR2" s="67" t="s">
+      <c r="AF3" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="IS2" s="67"/>
-      <c r="IT2" s="67"/>
-      <c r="IU2" s="67"/>
-      <c r="IV2" s="67"/>
-      <c r="IW2" s="67"/>
-      <c r="IX2" s="67"/>
-      <c r="IY2" s="67"/>
-      <c r="IZ2" s="67"/>
-      <c r="JA2" s="67"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="68"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="72"/>
-      <c r="AE3" s="73" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="75" t="s">
         <v>121</v>
       </c>
-      <c r="AF3" s="73" t="s">
+      <c r="B4" s="76" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="74" t="s">
+      <c r="C4" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="D4" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="E4" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="F4" s="77" t="s">
         <v>126</v>
       </c>
-      <c r="E4" s="76" t="s">
+      <c r="G4" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="F4" s="76" t="s">
+      <c r="H4" s="77" t="s">
         <v>128</v>
       </c>
-      <c r="G4" s="76" t="s">
+      <c r="I4" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="H4" s="76" t="s">
+      <c r="J4" s="78" t="s">
         <v>130</v>
       </c>
-      <c r="I4" s="76" t="s">
+      <c r="K4" s="77" t="s">
         <v>131</v>
       </c>
-      <c r="J4" s="77" t="s">
+      <c r="AE4" s="79" t="s">
+        <v>119</v>
+      </c>
+      <c r="AF4" s="79" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="80" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="81" t="s">
         <v>132</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="C5" s="80" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" s="82" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E5" s="80" t="n">
+        <f aca="false">PRODUCT(C5:D5)</f>
+        <v>0.05</v>
+      </c>
+      <c r="F5" s="80" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" s="81" t="s">
         <v>133</v>
       </c>
-      <c r="AE4" s="78" t="s">
-        <v>121</v>
-      </c>
-      <c r="AF4" s="78" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="76.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="79" t="n">
+      <c r="H5" s="81" t="s">
+        <v>134</v>
+      </c>
+      <c r="I5" s="80" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="83" t="s">
+        <v>135</v>
+      </c>
+      <c r="K5" s="84" t="s">
+        <v>111</v>
+      </c>
+      <c r="IS5" s="85"/>
+      <c r="IT5" s="86"/>
+      <c r="IU5" s="86"/>
+      <c r="IV5" s="87"/>
+      <c r="IW5" s="88"/>
+      <c r="IX5" s="88"/>
+      <c r="IY5" s="88"/>
+      <c r="IZ5" s="89"/>
+    </row>
+    <row r="6" customFormat="false" ht="58.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="80" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="81" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="80" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" s="82" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E6" s="80" t="n">
+        <f aca="false">PRODUCT(C6:D6)</f>
+        <v>0.25</v>
+      </c>
+      <c r="F6" s="80" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" s="81" t="s">
+        <v>137</v>
+      </c>
+      <c r="H6" s="81" t="s">
+        <v>138</v>
+      </c>
+      <c r="I6" s="80" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="83" t="s">
+        <v>139</v>
+      </c>
+      <c r="K6" s="84" t="s">
+        <v>111</v>
+      </c>
+      <c r="IS6" s="90" t="s">
+        <v>140</v>
+      </c>
+      <c r="IT6" s="91" t="s">
+        <v>141</v>
+      </c>
+      <c r="IU6" s="92" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="IV6" s="93" t="n">
+        <f aca="false">(IV11*IU6)</f>
+        <v>0.9</v>
+      </c>
+      <c r="IW6" s="94" t="n">
+        <f aca="false">(IW11*IU6)</f>
+        <v>1.8</v>
+      </c>
+      <c r="IX6" s="95" t="n">
+        <f aca="false">(IX11*IU6)</f>
+        <v>2.7</v>
+      </c>
+      <c r="IY6" s="96" t="n">
+        <f aca="false">(IY11*IU6)</f>
+        <v>3.6</v>
+      </c>
+      <c r="IZ6" s="97" t="n">
+        <f aca="false">(IZ11*IU6)</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="98" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="81" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="80" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="80" t="s">
-        <v>134</v>
-      </c>
-      <c r="C5" s="79" t="n">
+      <c r="D7" s="82" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E7" s="80" t="n">
+        <f aca="false">PRODUCT(C7:D7)</f>
+        <v>0.7</v>
+      </c>
+      <c r="F7" s="80" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" s="81" t="s">
+        <v>143</v>
+      </c>
+      <c r="H7" s="81" t="s">
+        <v>144</v>
+      </c>
+      <c r="I7" s="80" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" s="83" t="s">
+        <v>145</v>
+      </c>
+      <c r="K7" s="84" t="s">
+        <v>146</v>
+      </c>
+      <c r="IS7" s="90"/>
+      <c r="IT7" s="91" t="s">
+        <v>147</v>
+      </c>
+      <c r="IU7" s="92" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="IV7" s="99" t="n">
+        <f aca="false">(IV11*IU7)</f>
+        <v>0.7</v>
+      </c>
+      <c r="IW7" s="100" t="n">
+        <f aca="false">(IW11*IU7)</f>
+        <v>1.4</v>
+      </c>
+      <c r="IX7" s="101" t="n">
+        <f aca="false">(IX11*IU7)</f>
+        <v>2.1</v>
+      </c>
+      <c r="IY7" s="102" t="n">
+        <f aca="false">(IY11*IU7)</f>
+        <v>2.8</v>
+      </c>
+      <c r="IZ7" s="103" t="n">
+        <f aca="false">(IZ11*IU7)</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="98" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="81"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="98" t="n">
+        <f aca="false">PRODUCT(C8:D8)</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="98"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="106"/>
+      <c r="IS8" s="90"/>
+      <c r="IT8" s="91" t="s">
+        <v>148</v>
+      </c>
+      <c r="IU8" s="92" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="IV8" s="99" t="n">
+        <f aca="false">(IV11*IU8)</f>
+        <v>0.5</v>
+      </c>
+      <c r="IW8" s="107" t="n">
+        <f aca="false">(IW11*IU8)</f>
         <v>1</v>
       </c>
-      <c r="D5" s="81" t="n">
+      <c r="IX8" s="100" t="n">
+        <f aca="false">(IX11*IU8)</f>
+        <v>1.5</v>
+      </c>
+      <c r="IY8" s="100" t="n">
+        <f aca="false">(IY11*IU8)</f>
+        <v>2</v>
+      </c>
+      <c r="IZ8" s="108" t="n">
+        <f aca="false">(IZ11*IU8)</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="98" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="81"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="98" t="n">
+        <f aca="false">PRODUCT(C9:D9)</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="98"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="106"/>
+      <c r="IS9" s="90"/>
+      <c r="IT9" s="91" t="s">
+        <v>149</v>
+      </c>
+      <c r="IU9" s="92" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="IV9" s="109" t="n">
+        <f aca="false">(IV11*IU9)</f>
+        <v>0.3</v>
+      </c>
+      <c r="IW9" s="110" t="n">
+        <f aca="false">(IW11*IU9)</f>
         <v>0.6</v>
       </c>
-      <c r="E5" s="79" t="n">
-        <f aca="false">PRODUCT(A5:D5)</f>
-        <v>0.6</v>
-      </c>
-      <c r="F5" s="79" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" s="80" t="s">
-        <v>135</v>
-      </c>
-      <c r="H5" s="80" t="s">
-        <v>136</v>
-      </c>
-      <c r="I5" s="82" t="s">
-        <v>137</v>
-      </c>
-      <c r="J5" s="83" t="s">
-        <v>138</v>
-      </c>
-      <c r="K5" s="84" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="79" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="80" t="s">
-        <v>140</v>
-      </c>
-      <c r="C6" s="79" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" s="81" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E6" s="79" t="n">
-        <f aca="false">PRODUCT(C6:D6)</f>
-        <v>0.8</v>
-      </c>
-      <c r="F6" s="79" t="n">
-        <v>3</v>
-      </c>
-      <c r="G6" s="80" t="s">
-        <v>141</v>
-      </c>
-      <c r="H6" s="84" t="s">
-        <v>142</v>
-      </c>
-      <c r="I6" s="82" t="s">
-        <v>137</v>
-      </c>
-      <c r="J6" s="83" t="s">
-        <v>143</v>
-      </c>
-      <c r="K6" s="84" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="79" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" s="80" t="s">
-        <v>144</v>
-      </c>
-      <c r="C7" s="79" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" s="81" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E7" s="79" t="n">
-        <f aca="false">PRODUCT(C7:D7)</f>
-        <v>0.8</v>
-      </c>
-      <c r="F7" s="79" t="n">
-        <v>3</v>
-      </c>
-      <c r="G7" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="H7" s="80" t="s">
-        <v>146</v>
-      </c>
-      <c r="I7" s="79" t="s">
-        <v>55</v>
-      </c>
-      <c r="J7" s="83" t="s">
-        <v>138</v>
-      </c>
-      <c r="K7" s="84" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="79" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" s="80" t="s">
-        <v>147</v>
-      </c>
-      <c r="C8" s="79" t="n">
-        <v>5</v>
-      </c>
-      <c r="D8" s="81" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E8" s="79" t="n">
-        <f aca="false">PRODUCT(C8:D8)</f>
-        <v>0.05</v>
-      </c>
-      <c r="F8" s="79" t="n">
-        <v>4</v>
-      </c>
-      <c r="G8" s="80" t="s">
-        <v>148</v>
-      </c>
-      <c r="H8" s="80" t="s">
-        <v>149</v>
-      </c>
-      <c r="I8" s="79" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="83" t="s">
-        <v>138</v>
-      </c>
-      <c r="K8" s="84" t="s">
-        <v>113</v>
-      </c>
-      <c r="IS8" s="85"/>
-      <c r="IT8" s="86"/>
-      <c r="IU8" s="86"/>
-      <c r="IV8" s="87"/>
-      <c r="IW8" s="88"/>
-      <c r="IX8" s="88"/>
-      <c r="IY8" s="88"/>
-      <c r="IZ8" s="89"/>
-    </row>
-    <row r="9" customFormat="false" ht="58.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="79" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" s="80" t="s">
-        <v>150</v>
-      </c>
-      <c r="C9" s="79" t="n">
-        <v>5</v>
-      </c>
-      <c r="D9" s="81" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E9" s="79" t="n">
-        <f aca="false">PRODUCT(C9:D9)</f>
-        <v>0.25</v>
-      </c>
-      <c r="F9" s="79" t="n">
-        <v>4</v>
-      </c>
-      <c r="G9" s="80" t="s">
-        <v>151</v>
-      </c>
-      <c r="H9" s="80" t="s">
-        <v>152</v>
-      </c>
-      <c r="I9" s="79" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" s="83" t="s">
-        <v>153</v>
-      </c>
-      <c r="K9" s="84" t="s">
-        <v>113</v>
-      </c>
-      <c r="IS9" s="90" t="s">
-        <v>154</v>
-      </c>
-      <c r="IT9" s="91" t="s">
-        <v>155</v>
-      </c>
-      <c r="IU9" s="92" t="n">
+      <c r="IX9" s="100" t="n">
+        <f aca="false">(IX11*IU9)</f>
         <v>0.9</v>
       </c>
-      <c r="IV9" s="93" t="n">
-        <f aca="false">(IV14*IU9)</f>
-        <v>0.9</v>
-      </c>
-      <c r="IW9" s="94" t="n">
-        <f aca="false">(IW14*IU9)</f>
-        <v>1.8</v>
-      </c>
-      <c r="IX9" s="95" t="n">
-        <f aca="false">(IX14*IU9)</f>
-        <v>2.7</v>
-      </c>
-      <c r="IY9" s="96" t="n">
-        <f aca="false">(IY14*IU9)</f>
-        <v>3.6</v>
-      </c>
-      <c r="IZ9" s="97" t="n">
-        <f aca="false">(IZ14*IU9)</f>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="IY9" s="100" t="n">
+        <f aca="false">(IY11*IU9)</f>
+        <v>1.2</v>
+      </c>
+      <c r="IZ9" s="111" t="n">
+        <f aca="false">(IZ11*IU9)</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="98" t="n">
-        <v>6</v>
-      </c>
-      <c r="B10" s="80" t="s">
-        <v>156</v>
-      </c>
-      <c r="C10" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="81" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="E10" s="79" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="81"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="98" t="n">
         <f aca="false">PRODUCT(C10:D10)</f>
-        <v>0.7</v>
-      </c>
-      <c r="F10" s="79" t="n">
-        <v>3</v>
-      </c>
-      <c r="G10" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="H10" s="80" t="s">
-        <v>158</v>
-      </c>
-      <c r="I10" s="79" t="s">
-        <v>55</v>
-      </c>
-      <c r="J10" s="83" t="s">
-        <v>159</v>
-      </c>
-      <c r="K10" s="84" t="s">
-        <v>139</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F10" s="98"/>
+      <c r="G10" s="112"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="106"/>
       <c r="IS10" s="90"/>
       <c r="IT10" s="91" t="s">
-        <v>160</v>
-      </c>
-      <c r="IU10" s="92" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="IV10" s="99" t="n">
-        <f aca="false">(IV14*IU10)</f>
-        <v>0.7</v>
-      </c>
-      <c r="IW10" s="100" t="n">
-        <f aca="false">(IW14*IU10)</f>
-        <v>1.4</v>
-      </c>
-      <c r="IX10" s="101" t="n">
-        <f aca="false">(IX14*IU10)</f>
-        <v>2.1</v>
-      </c>
-      <c r="IY10" s="102" t="n">
-        <f aca="false">(IY14*IU10)</f>
-        <v>2.8</v>
-      </c>
-      <c r="IZ10" s="103" t="n">
-        <f aca="false">(IZ14*IU10)</f>
-        <v>3.5</v>
+        <v>148</v>
+      </c>
+      <c r="IU10" s="113" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="IV10" s="114" t="n">
+        <f aca="false">(IV11*IU10)</f>
+        <v>0.1</v>
+      </c>
+      <c r="IW10" s="115" t="n">
+        <f aca="false">(IW11*IU10)</f>
+        <v>0.2</v>
+      </c>
+      <c r="IX10" s="116" t="n">
+        <f aca="false">(IX11*IV10)</f>
+        <v>0.3</v>
+      </c>
+      <c r="IY10" s="116" t="n">
+        <f aca="false">(IY11*IU10)</f>
+        <v>0.4</v>
+      </c>
+      <c r="IZ10" s="117" t="n">
+        <f aca="false">(IZ11*IU10)</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="98" t="n">
-        <v>7</v>
-      </c>
-      <c r="B11" s="80"/>
-      <c r="C11" s="98"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="98" t="n">
+      <c r="A11" s="118" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="119"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="118" t="n">
         <f aca="false">PRODUCT(C11:D11)</f>
         <v>0</v>
       </c>
-      <c r="F11" s="98"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="105"/>
-      <c r="K11" s="106"/>
-      <c r="IS11" s="90"/>
-      <c r="IT11" s="91" t="s">
-        <v>161</v>
-      </c>
-      <c r="IU11" s="92" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="IV11" s="99" t="n">
-        <f aca="false">(IV14*IU11)</f>
-        <v>0.5</v>
-      </c>
-      <c r="IW11" s="107" t="n">
-        <f aca="false">(IW14*IU11)</f>
+      <c r="F11" s="118"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="123"/>
+      <c r="K11" s="124"/>
+      <c r="IS11" s="125"/>
+      <c r="IT11" s="126"/>
+      <c r="IU11" s="91"/>
+      <c r="IV11" s="92" t="n">
         <v>1</v>
       </c>
-      <c r="IX11" s="100" t="n">
-        <f aca="false">(IX14*IU11)</f>
-        <v>1.5</v>
-      </c>
-      <c r="IY11" s="100" t="n">
-        <f aca="false">(IY14*IU11)</f>
+      <c r="IW11" s="92" t="n">
         <v>2</v>
       </c>
-      <c r="IZ11" s="108" t="n">
-        <f aca="false">(IZ14*IU11)</f>
-        <v>2.5</v>
+      <c r="IX11" s="92" t="n">
+        <v>3</v>
+      </c>
+      <c r="IY11" s="92" t="n">
+        <v>4</v>
+      </c>
+      <c r="IZ11" s="127" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="98" t="n">
-        <v>8</v>
-      </c>
-      <c r="B12" s="80"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="98" t="n">
+      <c r="A12" s="118" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="119"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="118" t="n">
         <f aca="false">PRODUCT(C12:D12)</f>
         <v>0</v>
       </c>
-      <c r="F12" s="98"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="105"/>
-      <c r="K12" s="106"/>
-      <c r="IS12" s="90"/>
-      <c r="IT12" s="91" t="s">
-        <v>162</v>
-      </c>
-      <c r="IU12" s="92" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="IV12" s="109" t="n">
-        <f aca="false">(IV14*IU12)</f>
-        <v>0.3</v>
-      </c>
-      <c r="IW12" s="110" t="n">
-        <f aca="false">(IW14*IU12)</f>
-        <v>0.6</v>
-      </c>
-      <c r="IX12" s="100" t="n">
-        <f aca="false">(IX14*IU12)</f>
-        <v>0.9</v>
-      </c>
-      <c r="IY12" s="100" t="n">
-        <f aca="false">(IY14*IU12)</f>
-        <v>1.2</v>
-      </c>
-      <c r="IZ12" s="111" t="n">
-        <f aca="false">(IZ14*IU12)</f>
-        <v>1.5</v>
+      <c r="F12" s="118"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="123"/>
+      <c r="K12" s="124"/>
+      <c r="IS12" s="125"/>
+      <c r="IT12" s="126"/>
+      <c r="IU12" s="126"/>
+      <c r="IV12" s="91" t="s">
+        <v>148</v>
+      </c>
+      <c r="IW12" s="91" t="s">
+        <v>149</v>
+      </c>
+      <c r="IX12" s="91" t="s">
+        <v>150</v>
+      </c>
+      <c r="IY12" s="91" t="s">
+        <v>147</v>
+      </c>
+      <c r="IZ12" s="128" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="98" t="n">
-        <v>9</v>
-      </c>
-      <c r="B13" s="80"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="98" t="n">
+      <c r="A13" s="118" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="119"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="118" t="n">
         <f aca="false">PRODUCT(C13:D13)</f>
         <v>0</v>
       </c>
-      <c r="F13" s="98"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="105"/>
-      <c r="K13" s="106"/>
-      <c r="IS13" s="90"/>
-      <c r="IT13" s="91" t="s">
-        <v>161</v>
-      </c>
-      <c r="IU13" s="113" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="IV13" s="114" t="n">
-        <f aca="false">(IV14*IU13)</f>
-        <v>0.1</v>
-      </c>
-      <c r="IW13" s="115" t="n">
-        <f aca="false">(IW14*IU13)</f>
-        <v>0.2</v>
-      </c>
-      <c r="IX13" s="116" t="n">
-        <f aca="false">(IX14*IV13)</f>
-        <v>0.3</v>
-      </c>
-      <c r="IY13" s="116" t="n">
-        <f aca="false">(IY14*IU13)</f>
-        <v>0.4</v>
-      </c>
-      <c r="IZ13" s="117" t="n">
-        <f aca="false">(IZ14*IU13)</f>
-        <v>0.5</v>
-      </c>
+      <c r="F13" s="118"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="124"/>
+      <c r="IS13" s="125"/>
+      <c r="IT13" s="126"/>
+      <c r="IU13" s="92"/>
+      <c r="IV13" s="129" t="s">
+        <v>151</v>
+      </c>
+      <c r="IW13" s="129"/>
+      <c r="IX13" s="129"/>
+      <c r="IY13" s="129"/>
+      <c r="IZ13" s="129"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="118" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B14" s="119"/>
       <c r="C14" s="118"/>
@@ -10121,26 +9758,16 @@
       <c r="K14" s="124"/>
       <c r="IS14" s="125"/>
       <c r="IT14" s="126"/>
-      <c r="IU14" s="91"/>
-      <c r="IV14" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="IW14" s="92" t="n">
-        <v>2</v>
-      </c>
-      <c r="IX14" s="92" t="n">
-        <v>3</v>
-      </c>
-      <c r="IY14" s="92" t="n">
-        <v>4</v>
-      </c>
-      <c r="IZ14" s="127" t="n">
-        <v>5</v>
-      </c>
+      <c r="IU14" s="126"/>
+      <c r="IV14" s="126"/>
+      <c r="IW14" s="126"/>
+      <c r="IX14" s="126"/>
+      <c r="IY14" s="126"/>
+      <c r="IZ14" s="130"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="118" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B15" s="119"/>
       <c r="C15" s="118"/>
@@ -10157,26 +9784,16 @@
       <c r="K15" s="124"/>
       <c r="IS15" s="125"/>
       <c r="IT15" s="126"/>
-      <c r="IU15" s="126"/>
-      <c r="IV15" s="91" t="s">
-        <v>161</v>
-      </c>
-      <c r="IW15" s="91" t="s">
-        <v>162</v>
-      </c>
-      <c r="IX15" s="91" t="s">
-        <v>163</v>
-      </c>
-      <c r="IY15" s="91" t="s">
-        <v>160</v>
-      </c>
-      <c r="IZ15" s="128" t="s">
-        <v>155</v>
-      </c>
+      <c r="IU15" s="131"/>
+      <c r="IV15" s="131"/>
+      <c r="IW15" s="131"/>
+      <c r="IX15" s="131"/>
+      <c r="IY15" s="131"/>
+      <c r="IZ15" s="132"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="118" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B16" s="119"/>
       <c r="C16" s="118"/>
@@ -10191,20 +9808,20 @@
       <c r="I16" s="122"/>
       <c r="J16" s="123"/>
       <c r="K16" s="124"/>
-      <c r="IS16" s="125"/>
-      <c r="IT16" s="126"/>
-      <c r="IU16" s="92"/>
-      <c r="IV16" s="129" t="s">
-        <v>164</v>
-      </c>
-      <c r="IW16" s="129"/>
-      <c r="IX16" s="129"/>
-      <c r="IY16" s="129"/>
-      <c r="IZ16" s="129"/>
+      <c r="IS16" s="133" t="s">
+        <v>125</v>
+      </c>
+      <c r="IT16" s="133"/>
+      <c r="IU16" s="131"/>
+      <c r="IV16" s="131"/>
+      <c r="IW16" s="131"/>
+      <c r="IX16" s="131"/>
+      <c r="IY16" s="131"/>
+      <c r="IZ16" s="132"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="118" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B17" s="119"/>
       <c r="C17" s="118"/>
@@ -10219,18 +9836,22 @@
       <c r="I17" s="122"/>
       <c r="J17" s="123"/>
       <c r="K17" s="124"/>
-      <c r="IS17" s="125"/>
-      <c r="IT17" s="126"/>
-      <c r="IU17" s="126"/>
-      <c r="IV17" s="126"/>
-      <c r="IW17" s="126"/>
-      <c r="IX17" s="126"/>
-      <c r="IY17" s="126"/>
-      <c r="IZ17" s="130"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="IS17" s="134" t="s">
+        <v>152</v>
+      </c>
+      <c r="IT17" s="135"/>
+      <c r="IU17" s="131"/>
+      <c r="IV17" s="136" t="s">
+        <v>153</v>
+      </c>
+      <c r="IW17" s="136"/>
+      <c r="IX17" s="136"/>
+      <c r="IY17" s="136"/>
+      <c r="IZ17" s="136"/>
+    </row>
+    <row r="18" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="118" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B18" s="119"/>
       <c r="C18" s="118"/>
@@ -10245,18 +9866,22 @@
       <c r="I18" s="122"/>
       <c r="J18" s="123"/>
       <c r="K18" s="124"/>
-      <c r="IS18" s="125"/>
-      <c r="IT18" s="126"/>
+      <c r="IS18" s="134" t="s">
+        <v>154</v>
+      </c>
+      <c r="IT18" s="137"/>
       <c r="IU18" s="131"/>
-      <c r="IV18" s="131"/>
-      <c r="IW18" s="131"/>
-      <c r="IX18" s="131"/>
-      <c r="IY18" s="131"/>
-      <c r="IZ18" s="132"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="IV18" s="136" t="s">
+        <v>155</v>
+      </c>
+      <c r="IW18" s="136"/>
+      <c r="IX18" s="136"/>
+      <c r="IY18" s="136"/>
+      <c r="IZ18" s="136"/>
+    </row>
+    <row r="19" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="118" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B19" s="119"/>
       <c r="C19" s="118"/>
@@ -10271,20 +9896,22 @@
       <c r="I19" s="122"/>
       <c r="J19" s="123"/>
       <c r="K19" s="124"/>
-      <c r="IS19" s="133" t="s">
-        <v>127</v>
-      </c>
-      <c r="IT19" s="133"/>
+      <c r="IS19" s="134" t="s">
+        <v>156</v>
+      </c>
+      <c r="IT19" s="138"/>
       <c r="IU19" s="131"/>
-      <c r="IV19" s="131"/>
-      <c r="IW19" s="131"/>
-      <c r="IX19" s="131"/>
-      <c r="IY19" s="131"/>
-      <c r="IZ19" s="132"/>
+      <c r="IV19" s="136" t="s">
+        <v>155</v>
+      </c>
+      <c r="IW19" s="136"/>
+      <c r="IX19" s="136"/>
+      <c r="IY19" s="136"/>
+      <c r="IZ19" s="136"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="118" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B20" s="119"/>
       <c r="C20" s="118"/>
@@ -10299,22 +9926,18 @@
       <c r="I20" s="122"/>
       <c r="J20" s="123"/>
       <c r="K20" s="124"/>
-      <c r="IS20" s="134" t="s">
-        <v>165</v>
-      </c>
-      <c r="IT20" s="135"/>
-      <c r="IU20" s="131"/>
-      <c r="IV20" s="136" t="s">
-        <v>166</v>
-      </c>
-      <c r="IW20" s="136"/>
-      <c r="IX20" s="136"/>
-      <c r="IY20" s="136"/>
-      <c r="IZ20" s="136"/>
-    </row>
-    <row r="21" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="IS20" s="139"/>
+      <c r="IT20" s="140"/>
+      <c r="IU20" s="141"/>
+      <c r="IV20" s="141"/>
+      <c r="IW20" s="141"/>
+      <c r="IX20" s="141"/>
+      <c r="IY20" s="141"/>
+      <c r="IZ20" s="142"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="118" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B21" s="119"/>
       <c r="C21" s="118"/>
@@ -10329,92 +9952,30 @@
       <c r="I21" s="122"/>
       <c r="J21" s="123"/>
       <c r="K21" s="124"/>
-      <c r="IS21" s="134" t="s">
-        <v>167</v>
-      </c>
-      <c r="IT21" s="137"/>
-      <c r="IU21" s="131"/>
-      <c r="IV21" s="136" t="s">
-        <v>168</v>
-      </c>
-      <c r="IW21" s="136"/>
-      <c r="IX21" s="136"/>
-      <c r="IY21" s="136"/>
-      <c r="IZ21" s="136"/>
-    </row>
-    <row r="22" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="118" t="n">
-        <v>18</v>
-      </c>
-      <c r="B22" s="119"/>
-      <c r="C22" s="118"/>
-      <c r="D22" s="120"/>
-      <c r="E22" s="118" t="n">
-        <f aca="false">PRODUCT(C22:D22)</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="118"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="119"/>
-      <c r="I22" s="122"/>
-      <c r="J22" s="123"/>
-      <c r="K22" s="124"/>
-      <c r="IS22" s="134" t="s">
-        <v>169</v>
-      </c>
-      <c r="IT22" s="138"/>
-      <c r="IU22" s="131"/>
-      <c r="IV22" s="136" t="s">
-        <v>168</v>
-      </c>
-      <c r="IW22" s="136"/>
-      <c r="IX22" s="136"/>
-      <c r="IY22" s="136"/>
-      <c r="IZ22" s="136"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="118" t="n">
-        <v>19</v>
-      </c>
-      <c r="B23" s="119"/>
-      <c r="C23" s="118"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="118" t="n">
-        <f aca="false">PRODUCT(C23:D23)</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="118"/>
-      <c r="G23" s="121"/>
-      <c r="H23" s="119"/>
-      <c r="I23" s="122"/>
-      <c r="J23" s="123"/>
-      <c r="K23" s="124"/>
-      <c r="IS23" s="139"/>
-      <c r="IT23" s="140"/>
-      <c r="IU23" s="141"/>
-      <c r="IV23" s="141"/>
-      <c r="IW23" s="141"/>
-      <c r="IX23" s="141"/>
-      <c r="IY23" s="141"/>
-      <c r="IZ23" s="142"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="118" t="n">
-        <v>20</v>
-      </c>
-      <c r="B24" s="119"/>
-      <c r="C24" s="118"/>
-      <c r="D24" s="120"/>
-      <c r="E24" s="118" t="n">
-        <f aca="false">PRODUCT(C24:D24)</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="118"/>
-      <c r="G24" s="121"/>
-      <c r="H24" s="119"/>
-      <c r="I24" s="122"/>
-      <c r="J24" s="123"/>
-      <c r="K24" s="124"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="143"/>
+      <c r="B22" s="143"/>
+      <c r="C22" s="143"/>
+      <c r="D22" s="143"/>
+      <c r="E22" s="143"/>
+      <c r="F22" s="143"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="143"/>
+      <c r="B23" s="143"/>
+      <c r="C23" s="143"/>
+      <c r="D23" s="143"/>
+      <c r="E23" s="143"/>
+      <c r="F23" s="143"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="143"/>
+      <c r="B24" s="143"/>
+      <c r="C24" s="143"/>
+      <c r="D24" s="143"/>
+      <c r="E24" s="143"/>
+      <c r="F24" s="143"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="143"/>
@@ -10435,226 +9996,205 @@
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="143"/>
       <c r="B27" s="143"/>
-      <c r="C27" s="143"/>
-      <c r="D27" s="143"/>
-      <c r="E27" s="143"/>
+      <c r="C27" s="144"/>
+      <c r="D27" s="144"/>
+      <c r="E27" s="144"/>
       <c r="F27" s="143"/>
     </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="143"/>
-      <c r="B28" s="143"/>
-      <c r="C28" s="143"/>
-      <c r="D28" s="143"/>
-      <c r="E28" s="143"/>
-      <c r="F28" s="143"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="143"/>
-      <c r="B29" s="143"/>
-      <c r="C29" s="143"/>
-      <c r="D29" s="143"/>
-      <c r="E29" s="143"/>
-      <c r="F29" s="143"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="143"/>
-      <c r="B30" s="143"/>
-      <c r="C30" s="144"/>
-      <c r="D30" s="144"/>
-      <c r="E30" s="144"/>
-      <c r="F30" s="143"/>
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="145"/>
+      <c r="D35" s="145"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="63"/>
+      <c r="N35" s="63"/>
+      <c r="O35" s="63"/>
+      <c r="P35" s="63"/>
+      <c r="Q35" s="63"/>
+      <c r="R35" s="63"/>
+      <c r="S35" s="63"/>
+      <c r="T35" s="63"/>
+      <c r="U35" s="63"/>
+      <c r="V35" s="63"/>
+      <c r="W35" s="63"/>
+      <c r="X35" s="63"/>
+      <c r="Y35" s="63"/>
+      <c r="Z35" s="63"/>
+      <c r="AA35" s="63"/>
+      <c r="AB35" s="63"/>
+      <c r="AC35" s="63"/>
+      <c r="AD35" s="63"/>
+      <c r="AE35" s="63"/>
+      <c r="AF35" s="63"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="145"/>
+      <c r="D36" s="145"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="63"/>
+      <c r="J36" s="63"/>
+      <c r="K36" s="63"/>
+      <c r="L36" s="63"/>
+      <c r="M36" s="63"/>
+      <c r="N36" s="63"/>
+      <c r="O36" s="63"/>
+      <c r="P36" s="63"/>
+      <c r="Q36" s="63"/>
+      <c r="R36" s="63"/>
+      <c r="S36" s="63"/>
+      <c r="T36" s="63"/>
+      <c r="U36" s="63"/>
+      <c r="V36" s="63"/>
+      <c r="W36" s="63"/>
+      <c r="X36" s="63"/>
+      <c r="Y36" s="63"/>
+      <c r="Z36" s="63"/>
+      <c r="AA36" s="63"/>
+      <c r="AB36" s="63"/>
+      <c r="AC36" s="63"/>
+      <c r="AD36" s="63"/>
+      <c r="AE36" s="63"/>
+      <c r="AF36" s="63"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="145"/>
+      <c r="D37" s="145"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="63"/>
+      <c r="J37" s="63"/>
+      <c r="K37" s="63"/>
+      <c r="L37" s="63"/>
+      <c r="M37" s="63"/>
+      <c r="N37" s="63"/>
+      <c r="O37" s="63"/>
+      <c r="P37" s="63"/>
+      <c r="Q37" s="63"/>
+      <c r="R37" s="63"/>
+      <c r="S37" s="63"/>
+      <c r="T37" s="63"/>
+      <c r="U37" s="63"/>
+      <c r="V37" s="63"/>
+      <c r="W37" s="63"/>
+      <c r="X37" s="63"/>
+      <c r="Y37" s="63"/>
+      <c r="Z37" s="63"/>
+      <c r="AA37" s="63"/>
+      <c r="AB37" s="63"/>
+      <c r="AC37" s="63"/>
+      <c r="AD37" s="63"/>
+      <c r="AE37" s="63"/>
+      <c r="AF37" s="63"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="145"/>
-      <c r="D38" s="145"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="62"/>
-      <c r="J38" s="62"/>
-      <c r="K38" s="62"/>
-      <c r="L38" s="62"/>
-      <c r="M38" s="62"/>
-      <c r="N38" s="62"/>
-      <c r="O38" s="62"/>
-      <c r="P38" s="62"/>
-      <c r="Q38" s="62"/>
-      <c r="R38" s="62"/>
-      <c r="S38" s="62"/>
-      <c r="T38" s="62"/>
-      <c r="U38" s="62"/>
-      <c r="V38" s="62"/>
-      <c r="W38" s="62"/>
-      <c r="X38" s="62"/>
-      <c r="Y38" s="62"/>
-      <c r="Z38" s="62"/>
-      <c r="AA38" s="62"/>
-      <c r="AB38" s="62"/>
-      <c r="AC38" s="62"/>
-      <c r="AD38" s="62"/>
-      <c r="AE38" s="62"/>
-      <c r="AF38" s="62"/>
+      <c r="C38" s="146"/>
+      <c r="D38" s="146"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="63"/>
+      <c r="J38" s="63"/>
+      <c r="K38" s="63"/>
+      <c r="L38" s="63"/>
+      <c r="M38" s="63"/>
+      <c r="N38" s="63"/>
+      <c r="O38" s="63"/>
+      <c r="P38" s="63"/>
+      <c r="Q38" s="63"/>
+      <c r="R38" s="63"/>
+      <c r="S38" s="63"/>
+      <c r="T38" s="63"/>
+      <c r="U38" s="63"/>
+      <c r="V38" s="63"/>
+      <c r="W38" s="63"/>
+      <c r="X38" s="63"/>
+      <c r="Y38" s="63"/>
+      <c r="Z38" s="63"/>
+      <c r="AA38" s="63"/>
+      <c r="AB38" s="63"/>
+      <c r="AC38" s="63"/>
+      <c r="AD38" s="63"/>
+      <c r="AE38" s="63"/>
+      <c r="AF38" s="63"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="145"/>
-      <c r="D39" s="145"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="62"/>
-      <c r="J39" s="62"/>
-      <c r="K39" s="62"/>
-      <c r="L39" s="62"/>
-      <c r="M39" s="62"/>
-      <c r="N39" s="62"/>
-      <c r="O39" s="62"/>
-      <c r="P39" s="62"/>
-      <c r="Q39" s="62"/>
-      <c r="R39" s="62"/>
-      <c r="S39" s="62"/>
-      <c r="T39" s="62"/>
-      <c r="U39" s="62"/>
-      <c r="V39" s="62"/>
-      <c r="W39" s="62"/>
-      <c r="X39" s="62"/>
-      <c r="Y39" s="62"/>
-      <c r="Z39" s="62"/>
-      <c r="AA39" s="62"/>
-      <c r="AB39" s="62"/>
-      <c r="AC39" s="62"/>
-      <c r="AD39" s="62"/>
-      <c r="AE39" s="62"/>
-      <c r="AF39" s="62"/>
+      <c r="C39" s="146"/>
+      <c r="D39" s="146"/>
+      <c r="G39" s="63"/>
+      <c r="H39" s="63"/>
+      <c r="I39" s="63"/>
+      <c r="J39" s="63"/>
+      <c r="K39" s="63"/>
+      <c r="L39" s="63"/>
+      <c r="M39" s="63"/>
+      <c r="N39" s="63"/>
+      <c r="O39" s="63"/>
+      <c r="P39" s="63"/>
+      <c r="Q39" s="63"/>
+      <c r="R39" s="63"/>
+      <c r="S39" s="63"/>
+      <c r="T39" s="63"/>
+      <c r="U39" s="63"/>
+      <c r="V39" s="63"/>
+      <c r="W39" s="63"/>
+      <c r="X39" s="63"/>
+      <c r="Y39" s="63"/>
+      <c r="Z39" s="63"/>
+      <c r="AA39" s="63"/>
+      <c r="AB39" s="63"/>
+      <c r="AC39" s="63"/>
+      <c r="AD39" s="63"/>
+      <c r="AE39" s="63"/>
+      <c r="AF39" s="63"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="145"/>
-      <c r="D40" s="145"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="62"/>
-      <c r="J40" s="62"/>
-      <c r="K40" s="62"/>
-      <c r="L40" s="62"/>
-      <c r="M40" s="62"/>
-      <c r="N40" s="62"/>
-      <c r="O40" s="62"/>
-      <c r="P40" s="62"/>
-      <c r="Q40" s="62"/>
-      <c r="R40" s="62"/>
-      <c r="S40" s="62"/>
-      <c r="T40" s="62"/>
-      <c r="U40" s="62"/>
-      <c r="V40" s="62"/>
-      <c r="W40" s="62"/>
-      <c r="X40" s="62"/>
-      <c r="Y40" s="62"/>
-      <c r="Z40" s="62"/>
-      <c r="AA40" s="62"/>
-      <c r="AB40" s="62"/>
-      <c r="AC40" s="62"/>
-      <c r="AD40" s="62"/>
-      <c r="AE40" s="62"/>
-      <c r="AF40" s="62"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="146"/>
-      <c r="D41" s="146"/>
-      <c r="G41" s="62"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="62"/>
-      <c r="J41" s="62"/>
-      <c r="K41" s="62"/>
-      <c r="L41" s="62"/>
-      <c r="M41" s="62"/>
-      <c r="N41" s="62"/>
-      <c r="O41" s="62"/>
-      <c r="P41" s="62"/>
-      <c r="Q41" s="62"/>
-      <c r="R41" s="62"/>
-      <c r="S41" s="62"/>
-      <c r="T41" s="62"/>
-      <c r="U41" s="62"/>
-      <c r="V41" s="62"/>
-      <c r="W41" s="62"/>
-      <c r="X41" s="62"/>
-      <c r="Y41" s="62"/>
-      <c r="Z41" s="62"/>
-      <c r="AA41" s="62"/>
-      <c r="AB41" s="62"/>
-      <c r="AC41" s="62"/>
-      <c r="AD41" s="62"/>
-      <c r="AE41" s="62"/>
-      <c r="AF41" s="62"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="146"/>
-      <c r="D42" s="146"/>
-      <c r="G42" s="62"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="62"/>
-      <c r="J42" s="62"/>
-      <c r="K42" s="62"/>
-      <c r="L42" s="62"/>
-      <c r="M42" s="62"/>
-      <c r="N42" s="62"/>
-      <c r="O42" s="62"/>
-      <c r="P42" s="62"/>
-      <c r="Q42" s="62"/>
-      <c r="R42" s="62"/>
-      <c r="S42" s="62"/>
-      <c r="T42" s="62"/>
-      <c r="U42" s="62"/>
-      <c r="V42" s="62"/>
-      <c r="W42" s="62"/>
-      <c r="X42" s="62"/>
-      <c r="Y42" s="62"/>
-      <c r="Z42" s="62"/>
-      <c r="AA42" s="62"/>
-      <c r="AB42" s="62"/>
-      <c r="AC42" s="62"/>
-      <c r="AD42" s="62"/>
-      <c r="AE42" s="62"/>
-      <c r="AF42" s="62"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="146"/>
-      <c r="D43" s="146"/>
-      <c r="G43" s="62"/>
-      <c r="H43" s="62"/>
-      <c r="I43" s="62"/>
-      <c r="J43" s="62"/>
-      <c r="K43" s="62"/>
-      <c r="L43" s="62"/>
-      <c r="M43" s="62"/>
-      <c r="N43" s="62"/>
-      <c r="O43" s="62"/>
-      <c r="P43" s="62"/>
-      <c r="Q43" s="62"/>
-      <c r="R43" s="62"/>
-      <c r="S43" s="62"/>
-      <c r="T43" s="62"/>
-      <c r="U43" s="62"/>
-      <c r="V43" s="62"/>
-      <c r="W43" s="62"/>
-      <c r="X43" s="62"/>
-      <c r="Y43" s="62"/>
-      <c r="Z43" s="62"/>
-      <c r="AA43" s="62"/>
-      <c r="AB43" s="62"/>
-      <c r="AC43" s="62"/>
-      <c r="AD43" s="62"/>
-      <c r="AE43" s="62"/>
-      <c r="AF43" s="62"/>
-    </row>
+      <c r="C40" s="146"/>
+      <c r="D40" s="146"/>
+      <c r="G40" s="63"/>
+      <c r="H40" s="63"/>
+      <c r="I40" s="63"/>
+      <c r="J40" s="63"/>
+      <c r="K40" s="63"/>
+      <c r="L40" s="63"/>
+      <c r="M40" s="63"/>
+      <c r="N40" s="63"/>
+      <c r="O40" s="63"/>
+      <c r="P40" s="63"/>
+      <c r="Q40" s="63"/>
+      <c r="R40" s="63"/>
+      <c r="S40" s="63"/>
+      <c r="T40" s="63"/>
+      <c r="U40" s="63"/>
+      <c r="V40" s="63"/>
+      <c r="W40" s="63"/>
+      <c r="X40" s="63"/>
+      <c r="Y40" s="63"/>
+      <c r="Z40" s="63"/>
+      <c r="AA40" s="63"/>
+      <c r="AB40" s="63"/>
+      <c r="AC40" s="63"/>
+      <c r="AD40" s="63"/>
+      <c r="AE40" s="63"/>
+      <c r="AF40" s="63"/>
+    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J5:J9" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J5:J6" type="list">
       <formula1>"Abierto,Mitigado,Ocurrido,Cerrado"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F5:F9" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F5:F6" type="list">
       <formula1>"1,2,3,4"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5:C9" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5:C6" type="list">
       <formula1>",1,2,3,4,5"</formula1>
       <formula2>0</formula2>
     </dataValidation>
